--- a/mv2040_outcomes_framework/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/mv2040_outcomes_framework/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\data_in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\mv2040_outcomes_framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2AE88-90E0-4E88-A36C-F49B874EF8F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F64333C-E1FB-4549-A174-129E43A381F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7995" tabRatio="538" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7995" tabRatio="538" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" firstSheet="1" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Additional indicators'!$B$2:$F$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$L$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$L$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="773">
   <si>
     <t>FAIR</t>
   </si>
@@ -3488,7 +3488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3759,6 +3759,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5910,9 +5913,9 @@
   </sheetPr>
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -17735,7 +17738,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="100" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -17756,7 +17759,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -17775,7 +17778,7 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -17794,7 +17797,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -17813,7 +17816,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="2" t="s">
         <v>204</v>
       </c>
@@ -17832,7 +17835,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="101" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -17853,7 +17856,7 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
@@ -17872,7 +17875,7 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
@@ -17882,7 +17885,7 @@
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17901,7 +17904,7 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
@@ -17920,7 +17923,7 @@
       <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="20"/>
       <c r="F17" s="2" t="s">
         <v>205</v>
@@ -17931,7 +17934,7 @@
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -17952,7 +17955,7 @@
       <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="102"/>
+      <c r="B19" s="103"/>
       <c r="D19" s="26" t="s">
         <v>180</v>
       </c>
@@ -17968,7 +17971,7 @@
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="102"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="2" t="s">
         <v>192</v>
       </c>
@@ -17987,7 +17990,7 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="104" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -18008,7 +18011,7 @@
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="2" t="s">
         <v>208</v>
       </c>
@@ -18381,13 +18384,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA757D16-73A3-4F6E-B04B-4E242565B189}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -18433,7 +18436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -18465,7 +18468,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>692</v>
       </c>
@@ -18497,7 +18500,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -18529,7 +18532,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>693</v>
       </c>
@@ -18561,7 +18564,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -18593,7 +18596,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>695</v>
       </c>
@@ -18625,7 +18628,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>698</v>
       </c>
@@ -18657,7 +18660,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>739</v>
       </c>
@@ -18689,7 +18692,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -18721,7 +18724,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -18785,7 +18788,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>699</v>
       </c>
@@ -18849,7 +18852,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>701</v>
       </c>
@@ -18881,7 +18884,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>702</v>
       </c>
@@ -18943,7 +18946,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>704</v>
       </c>
@@ -18975,7 +18978,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>705</v>
       </c>
@@ -19007,7 +19010,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>706</v>
       </c>
@@ -19035,7 +19038,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>707</v>
       </c>
@@ -19127,7 +19130,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>710</v>
       </c>
@@ -19157,7 +19160,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>711</v>
       </c>
@@ -19187,7 +19190,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>712</v>
       </c>
@@ -19219,7 +19222,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -19251,7 +19254,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>720</v>
       </c>
@@ -19283,7 +19286,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>714</v>
       </c>
@@ -19315,7 +19318,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>721</v>
       </c>
@@ -19347,7 +19350,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -19379,7 +19382,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>723</v>
       </c>
@@ -19411,7 +19414,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>724</v>
       </c>
@@ -19441,7 +19444,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>715</v>
       </c>
@@ -19473,7 +19476,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>716</v>
       </c>
@@ -19505,7 +19508,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>725</v>
       </c>
@@ -19537,7 +19540,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>717</v>
       </c>
@@ -19569,7 +19572,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>718</v>
       </c>
@@ -19601,7 +19604,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>726</v>
       </c>
@@ -19631,7 +19634,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>719</v>
       </c>
@@ -19663,7 +19666,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>727</v>
       </c>
@@ -19694,13 +19697,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41" xr:uid="{AF0461F5-5522-4400-ADC3-010F7ED92A51}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ABS (Census of Population and Housing)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H41" xr:uid="{AF0461F5-5522-4400-ADC3-010F7ED92A51}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20423,13 +20420,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
-      <selection activeCell="K53" sqref="K53"/>
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21240,83 +21237,79 @@
         <v>703</v>
       </c>
       <c r="B49" s="92">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C49" s="95">
-        <v>33</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D49" s="86"/>
       <c r="E49" s="86"/>
-      <c r="F49" s="42" t="s">
-        <v>736</v>
+      <c r="F49" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
         <v>703</v>
       </c>
-      <c r="B50" s="90">
-        <v>51317</v>
+      <c r="B50" s="92">
+        <v>42551</v>
       </c>
       <c r="C50" s="95">
-        <v>48.199999999999996</v>
+        <v>33</v>
       </c>
       <c r="D50" s="86"/>
       <c r="E50" s="86"/>
-      <c r="F50" s="2" t="s">
-        <v>738</v>
+      <c r="F50" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="B51" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C51" s="89">
-        <v>46.9</v>
-      </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="42" t="s">
-        <v>736</v>
+        <v>703</v>
+      </c>
+      <c r="B51" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C51" s="95">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
         <v>704</v>
       </c>
-      <c r="B52" s="90">
-        <v>51317</v>
+      <c r="B52" s="91">
+        <v>43646</v>
       </c>
       <c r="C52" s="89">
-        <v>49.3</v>
+        <v>46.9</v>
       </c>
       <c r="D52" s="89"/>
       <c r="E52" s="89"/>
-      <c r="F52" s="2" t="s">
-        <v>738</v>
+      <c r="F52" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="B53" s="91">
-        <v>43281</v>
+        <v>704</v>
+      </c>
+      <c r="B53" s="90">
+        <v>51317</v>
       </c>
       <c r="C53" s="89">
-        <v>71</v>
-      </c>
-      <c r="D53" s="89">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E53" s="89">
-        <v>71.891836587279997</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>736</v>
+        <v>49.3</v>
+      </c>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -21324,51 +21317,55 @@
         <v>705</v>
       </c>
       <c r="B54" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C54" s="89">
         <v>71</v>
       </c>
       <c r="D54" s="89">
-        <v>69.310210964059195</v>
+        <v>69.282534772719998</v>
       </c>
       <c r="E54" s="89">
-        <v>71.990952281489598</v>
+        <v>71.891836587279997</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
         <v>705</v>
       </c>
-      <c r="B55" s="90">
-        <v>51317</v>
+      <c r="B55" s="91">
+        <v>43646</v>
       </c>
       <c r="C55" s="89">
-        <v>79</v>
-      </c>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="2" t="s">
-        <v>738</v>
+        <v>71</v>
+      </c>
+      <c r="D55" s="89">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E55" s="89">
+        <v>71.990952281489598</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
-        <v>706</v>
-      </c>
-      <c r="B56" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C56" s="95">
-        <v>16.7</v>
-      </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="42" t="s">
-        <v>736</v>
+        <v>705</v>
+      </c>
+      <c r="B56" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C56" s="89">
+        <v>79</v>
+      </c>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -21376,7 +21373,7 @@
         <v>706</v>
       </c>
       <c r="B57" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C57" s="95">
         <v>16.7</v>
@@ -21384,87 +21381,87 @@
       <c r="D57" s="88"/>
       <c r="E57" s="88"/>
       <c r="F57" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="B58" s="90">
-        <v>51317</v>
+      <c r="B58" s="91">
+        <v>43646</v>
       </c>
       <c r="C58" s="95">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="D58" s="88"/>
       <c r="E58" s="88"/>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
+        <v>706</v>
+      </c>
+      <c r="B59" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C59" s="95">
+        <v>100</v>
+      </c>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="2" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="84" t="s">
-        <v>707</v>
-      </c>
-      <c r="B59" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C59" s="95">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="42" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="B60" s="90">
-        <v>51317</v>
+      <c r="B60" s="91">
+        <v>43281</v>
       </c>
       <c r="C60" s="95">
-        <v>90</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D60" s="87"/>
       <c r="E60" s="87"/>
-      <c r="F60" s="2" t="s">
-        <v>738</v>
+      <c r="F60" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="98" t="s">
-        <v>708</v>
+      <c r="A61" s="84" t="s">
+        <v>707</v>
       </c>
       <c r="B61" s="90">
-        <v>40724</v>
+        <v>51317</v>
       </c>
       <c r="C61" s="95">
-        <v>21.6</v>
+        <v>90</v>
       </c>
       <c r="D61" s="87"/>
       <c r="E61" s="87"/>
-      <c r="F61" s="42" t="s">
-        <v>736</v>
+      <c r="F61" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="98" t="s">
         <v>708</v>
       </c>
       <c r="B62" s="90">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C62" s="95">
-        <v>23.6</v>
+        <v>21.6</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="87"/>
       <c r="F62" s="42" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -21472,132 +21469,132 @@
         <v>708</v>
       </c>
       <c r="B63" s="90">
-        <v>51317</v>
+        <v>42551</v>
       </c>
       <c r="C63" s="95">
-        <v>50.1</v>
+        <v>23.6</v>
       </c>
       <c r="D63" s="87"/>
       <c r="E63" s="87"/>
-      <c r="F63" s="2" t="s">
-        <v>738</v>
+      <c r="F63" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B64" s="90">
-        <v>42551</v>
+        <v>51317</v>
       </c>
       <c r="C64" s="95">
-        <v>11</v>
+        <v>50.1</v>
       </c>
       <c r="D64" s="87"/>
       <c r="E64" s="87"/>
-      <c r="F64" s="42" t="s">
-        <v>736</v>
+      <c r="F64" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="99" t="s">
         <v>709</v>
       </c>
       <c r="B65" s="90">
-        <v>51317</v>
+        <v>40724</v>
       </c>
       <c r="C65" s="95">
-        <v>11.600000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D65" s="87"/>
       <c r="E65" s="87"/>
       <c r="F65" s="2" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="84" t="s">
-        <v>710</v>
-      </c>
-      <c r="B66" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C66" s="89">
-        <v>2</v>
-      </c>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
+        <v>709</v>
+      </c>
+      <c r="B66" s="90">
+        <v>42551</v>
+      </c>
+      <c r="C66" s="95">
+        <v>11</v>
+      </c>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
       <c r="F66" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
-        <v>710</v>
-      </c>
-      <c r="B67" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C67" s="89">
-        <v>1</v>
-      </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="42" t="s">
-        <v>737</v>
+        <v>709</v>
+      </c>
+      <c r="B67" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C67" s="95">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="84" t="s">
         <v>710</v>
       </c>
-      <c r="B68" s="90">
-        <v>51317</v>
+      <c r="B68" s="91">
+        <v>43281</v>
       </c>
       <c r="C68" s="89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" s="89"/>
       <c r="E68" s="89"/>
-      <c r="F68" s="2" t="s">
-        <v>738</v>
+      <c r="F68" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B69" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C69" s="95">
-        <v>0</v>
-      </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
+        <v>43646</v>
+      </c>
+      <c r="C69" s="89">
+        <v>1</v>
+      </c>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B70" s="90">
         <v>51317</v>
       </c>
-      <c r="C70" s="95">
-        <v>100</v>
-      </c>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
+      <c r="C70" s="89">
+        <v>0</v>
+      </c>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B71" s="91">
         <v>43281</v>
@@ -21605,117 +21602,117 @@
       <c r="C71" s="95">
         <v>0</v>
       </c>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
       <c r="F71" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="84" t="s">
-        <v>712</v>
-      </c>
-      <c r="B72" s="91">
-        <v>43646</v>
+        <v>711</v>
+      </c>
+      <c r="B72" s="90">
+        <v>51317</v>
       </c>
       <c r="C72" s="95">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="42" t="s">
-        <v>737</v>
+        <v>100</v>
+      </c>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="84" t="s">
         <v>712</v>
       </c>
-      <c r="B73" s="90">
-        <v>51317</v>
+      <c r="B73" s="91">
+        <v>43281</v>
       </c>
       <c r="C73" s="95">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D73" s="88"/>
       <c r="E73" s="88"/>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="84" t="s">
+        <v>712</v>
+      </c>
+      <c r="B74" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C74" s="95">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="84" t="s">
+        <v>712</v>
+      </c>
+      <c r="B75" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C75" s="95">
+        <v>100</v>
+      </c>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="2" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="B74" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C74" s="89">
-        <v>2773</v>
-      </c>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="42" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="B75" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C75" s="89">
-        <v>1746</v>
-      </c>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="42" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B76" s="90">
-        <v>51317</v>
+      <c r="B76" s="91">
+        <v>43281</v>
       </c>
       <c r="C76" s="89">
-        <v>139</v>
+        <v>2773</v>
       </c>
       <c r="D76" s="89"/>
       <c r="E76" s="89"/>
-      <c r="F76" s="2" t="s">
-        <v>738</v>
+      <c r="F76" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B77" s="91">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C77" s="89">
-        <v>1300000</v>
+        <v>1746</v>
       </c>
       <c r="D77" s="89"/>
       <c r="E77" s="89"/>
       <c r="F77" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B78" s="90">
         <v>51317</v>
       </c>
       <c r="C78" s="89">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D78" s="89"/>
       <c r="E78" s="89"/>
@@ -21725,13 +21722,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B79" s="91">
         <v>43281</v>
       </c>
       <c r="C79" s="89">
-        <v>49917</v>
+        <v>1300000</v>
       </c>
       <c r="D79" s="89"/>
       <c r="E79" s="89"/>
@@ -21741,61 +21738,61 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="B80" s="91">
-        <v>43646</v>
+        <v>720</v>
+      </c>
+      <c r="B80" s="90">
+        <v>51317</v>
       </c>
       <c r="C80" s="89">
-        <v>51573</v>
+        <v>0</v>
       </c>
       <c r="D80" s="89"/>
       <c r="E80" s="89"/>
-      <c r="F80" s="42" t="s">
-        <v>737</v>
+      <c r="F80" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
         <v>714</v>
       </c>
-      <c r="B81" s="90">
-        <v>51317</v>
+      <c r="B81" s="91">
+        <v>43281</v>
       </c>
       <c r="C81" s="89">
-        <v>54909</v>
+        <v>49917</v>
       </c>
       <c r="D81" s="89"/>
       <c r="E81" s="89"/>
-      <c r="F81" s="2" t="s">
-        <v>738</v>
+      <c r="F81" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B82" s="91">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C82" s="89">
-        <v>127</v>
+        <v>51573</v>
       </c>
       <c r="D82" s="89"/>
       <c r="E82" s="89"/>
       <c r="F82" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B83" s="90">
         <v>51317</v>
       </c>
       <c r="C83" s="89">
-        <v>57</v>
+        <v>54909</v>
       </c>
       <c r="D83" s="89"/>
       <c r="E83" s="89"/>
@@ -21805,13 +21802,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B84" s="91">
         <v>42185</v>
       </c>
       <c r="C84" s="89">
-        <v>12000</v>
+        <v>127</v>
       </c>
       <c r="D84" s="89"/>
       <c r="E84" s="89"/>
@@ -21821,13 +21818,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B85" s="90">
         <v>51317</v>
       </c>
       <c r="C85" s="89">
-        <v>6700</v>
+        <v>57</v>
       </c>
       <c r="D85" s="89"/>
       <c r="E85" s="89"/>
@@ -21837,49 +21834,51 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B86" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C86" s="95">
-        <v>17</v>
-      </c>
-      <c r="D86" s="95">
-        <v>16</v>
-      </c>
-      <c r="E86" s="95">
-        <v>18</v>
-      </c>
+        <v>42185</v>
+      </c>
+      <c r="C86" s="89">
+        <v>12000</v>
+      </c>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
       <c r="F86" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B87" s="90">
         <v>51317</v>
       </c>
-      <c r="C87" s="95">
-        <v>30</v>
-      </c>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
+      <c r="C87" s="89">
+        <v>6700</v>
+      </c>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
       <c r="F87" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B88" s="91">
         <v>43281</v>
       </c>
       <c r="C88" s="95">
-        <v>41.67</v>
+        <v>17</v>
+      </c>
+      <c r="D88" s="95">
+        <v>16</v>
+      </c>
+      <c r="E88" s="95">
+        <v>18</v>
       </c>
       <c r="F88" s="42" t="s">
         <v>736</v>
@@ -21887,49 +21886,57 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B89" s="91">
-        <v>43646</v>
+        <v>724</v>
+      </c>
+      <c r="B89" s="90">
+        <v>51317</v>
       </c>
       <c r="C89" s="95">
-        <v>41.11</v>
-      </c>
-      <c r="F89" s="42" t="s">
-        <v>737</v>
+        <v>30</v>
+      </c>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
         <v>715</v>
       </c>
-      <c r="B90" s="90">
-        <v>51317</v>
+      <c r="B90" s="91">
+        <v>43281</v>
       </c>
       <c r="C90" s="95">
-        <v>90</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>738</v>
+        <v>41.67</v>
+      </c>
+      <c r="F90" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B91" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C91" s="95">
+        <v>41.11</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B92" s="90">
         <v>51317</v>
       </c>
       <c r="C92" s="95">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>738</v>
@@ -21937,7 +21944,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F93" s="42" t="s">
         <v>736</v>
@@ -21945,77 +21952,71 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B94" s="90">
         <v>51317</v>
       </c>
       <c r="C94" s="95">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B95" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C95" s="95">
-        <v>75</v>
+      <c r="A95" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="F95" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B96" s="91">
-        <v>43646</v>
+      <c r="A96" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="B96" s="90">
+        <v>51317</v>
       </c>
       <c r="C96" s="95">
-        <v>80</v>
-      </c>
-      <c r="F96" s="42" t="s">
-        <v>737</v>
+        <v>100</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="B97" s="90">
-        <v>51317</v>
+      <c r="B97" s="91">
+        <v>43281</v>
       </c>
       <c r="C97" s="95">
-        <v>100</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>738</v>
+        <v>75</v>
+      </c>
+      <c r="F97" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B98" s="91">
         <v>43646</v>
       </c>
       <c r="C98" s="95">
-        <v>5.5</v>
+        <v>80</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B99" s="90">
         <v>51317</v>
@@ -22029,13 +22030,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B100" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C100" s="89">
-        <v>4.17</v>
+        <v>43646</v>
+      </c>
+      <c r="C100" s="95">
+        <v>5.5</v>
       </c>
       <c r="F100" s="42" t="s">
         <v>736</v>
@@ -22043,43 +22044,55 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
-        <v>726</v>
-      </c>
-      <c r="B101" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C101" s="89">
-        <v>4.13</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>737</v>
+        <v>718</v>
+      </c>
+      <c r="B101" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C101" s="95">
+        <v>100</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="B102" s="90">
-        <v>51317</v>
+      <c r="B102" s="91">
+        <v>43281</v>
       </c>
       <c r="C102" s="89">
-        <v>4.38</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>738</v>
+        <v>4.17</v>
+      </c>
+      <c r="F102" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
-        <v>719</v>
+        <v>726</v>
+      </c>
+      <c r="B103" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C103" s="89">
+        <v>4.13</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
-        <v>719</v>
+        <v>726</v>
+      </c>
+      <c r="B104" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C104" s="89">
+        <v>4.38</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>738</v>
@@ -22087,13 +22100,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="B105" s="92">
-        <v>40724</v>
-      </c>
-      <c r="C105" s="95">
-        <v>55.000000000000007</v>
+        <v>719</v>
       </c>
       <c r="F105" s="42" t="s">
         <v>736</v>
@@ -22101,20 +22108,42 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="B106" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C106" s="95">
-        <v>57.8</v>
+        <v>719</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>738</v>
       </c>
     </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B107" s="92">
+        <v>40724</v>
+      </c>
+      <c r="C107" s="95">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F107" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B108" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C108" s="95">
+        <v>57.8</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L106" xr:uid="{04467087-7743-4CB4-9D75-48881BCA7D64}"/>
+  <autoFilter ref="A1:L108" xr:uid="{04467087-7743-4CB4-9D75-48881BCA7D64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/mv2040_outcomes_framework/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/mv2040_outcomes_framework/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\mv2040_outcomes_framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F64333C-E1FB-4549-A174-129E43A381F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1619471D-CEB0-4B8E-B4D0-77B80478A028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7995" tabRatio="538" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" firstSheet="1" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
@@ -26,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Additional indicators'!$B$2:$F$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$L$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -5913,11 +5912,7 @@
   </sheetPr>
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15680,10 +15675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F190"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17665,10 +17657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18342,10 +18331,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18389,10 +18375,7 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19709,10 +19692,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -20179,10 +20159,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20422,11 +20399,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20434,8 +20408,6 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -22143,7 +22115,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L108" xr:uid="{04467087-7743-4CB4-9D75-48881BCA7D64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22155,10 +22126,7 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/mv2040_outcomes_framework/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/mv2040_outcomes_framework/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\mv2040_outcomes_framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1619471D-CEB0-4B8E-B4D0-77B80478A028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34388218-284B-42D7-90DF-273ACC76548A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" firstSheet="1" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="8" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Additional indicators'!$B$2:$F$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="773">
   <si>
     <t>FAIR</t>
   </si>
@@ -5912,7 +5912,9 @@
   </sheetPr>
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="K114" sqref="H114:K114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18375,7 +18377,9 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20397,10 +20401,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21858,7 +21862,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B89" s="90">
         <v>51317</v>
@@ -21866,57 +21870,69 @@
       <c r="C89" s="95">
         <v>30</v>
       </c>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="95"/>
       <c r="F89" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B90" s="91">
-        <v>43281</v>
+        <v>42185</v>
       </c>
       <c r="C90" s="95">
-        <v>41.67</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D90" s="95"/>
+      <c r="E90" s="95"/>
       <c r="F90" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B91" s="91">
-        <v>43646</v>
+        <v>724</v>
+      </c>
+      <c r="B91" s="90">
+        <v>51317</v>
       </c>
       <c r="C91" s="95">
-        <v>41.11</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>737</v>
+        <v>35</v>
+      </c>
+      <c r="D91" s="95"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B92" s="90">
         <v>51317</v>
       </c>
       <c r="C92" s="95">
-        <v>90</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
       <c r="F92" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B93" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C93" s="95">
+        <v>41.67</v>
       </c>
       <c r="F93" s="42" t="s">
         <v>736</v>
@@ -21924,71 +21940,65 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="B94" s="90">
-        <v>51317</v>
+        <v>715</v>
+      </c>
+      <c r="B94" s="91">
+        <v>43646</v>
       </c>
       <c r="C94" s="95">
-        <v>75</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>738</v>
+        <v>41.11</v>
+      </c>
+      <c r="F94" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="F95" s="42" t="s">
-        <v>736</v>
+        <v>715</v>
+      </c>
+      <c r="B95" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C95" s="95">
+        <v>90</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="B96" s="90">
+        <v>716</v>
+      </c>
+      <c r="F96" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="B97" s="90">
         <v>51317</v>
-      </c>
-      <c r="C96" s="95">
-        <v>100</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B97" s="91">
-        <v>43281</v>
       </c>
       <c r="C97" s="95">
         <v>75</v>
       </c>
-      <c r="F97" s="42" t="s">
+      <c r="F97" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="F98" s="42" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B98" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C98" s="95">
-        <v>80</v>
-      </c>
-      <c r="F98" s="42" t="s">
-        <v>737</v>
-      </c>
-    </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="61" t="s">
-        <v>717</v>
+      <c r="A99" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="B99" s="90">
         <v>51317</v>
@@ -22002,13 +22012,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B100" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C100" s="95">
-        <v>5.5</v>
+        <v>75</v>
       </c>
       <c r="F100" s="42" t="s">
         <v>736</v>
@@ -22016,55 +22026,55 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
-        <v>718</v>
-      </c>
-      <c r="B101" s="90">
-        <v>51317</v>
+        <v>717</v>
+      </c>
+      <c r="B101" s="91">
+        <v>43646</v>
       </c>
       <c r="C101" s="95">
-        <v>100</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>738</v>
+        <v>80</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
-        <v>726</v>
-      </c>
-      <c r="B102" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C102" s="89">
-        <v>4.17</v>
-      </c>
-      <c r="F102" s="42" t="s">
-        <v>736</v>
+        <v>717</v>
+      </c>
+      <c r="B102" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C102" s="95">
+        <v>100</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B103" s="91">
         <v>43646</v>
       </c>
-      <c r="C103" s="89">
-        <v>4.13</v>
+      <c r="C103" s="95">
+        <v>5.5</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B104" s="90">
         <v>51317</v>
       </c>
-      <c r="C104" s="89">
-        <v>4.38</v>
+      <c r="C104" s="95">
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>738</v>
@@ -22072,7 +22082,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
-        <v>719</v>
+        <v>726</v>
+      </c>
+      <c r="B105" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C105" s="89">
+        <v>4.17</v>
       </c>
       <c r="F105" s="42" t="s">
         <v>736</v>
@@ -22080,37 +22096,73 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>738</v>
+        <v>726</v>
+      </c>
+      <c r="B106" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C106" s="89">
+        <v>4.13</v>
+      </c>
+      <c r="F106" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="B107" s="92">
-        <v>40724</v>
-      </c>
-      <c r="C107" s="95">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F107" s="42" t="s">
-        <v>736</v>
+        <v>726</v>
+      </c>
+      <c r="B107" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C107" s="89">
+        <v>4.38</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="F108" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="B108" s="90">
+      <c r="B110" s="92">
+        <v>40724</v>
+      </c>
+      <c r="C110" s="95">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F110" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B111" s="90">
         <v>51317</v>
       </c>
-      <c r="C108" s="95">
+      <c r="C111" s="95">
         <v>57.8</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22124,9 +22176,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22477,7 +22531,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B32" t="s">
         <v>734</v>
@@ -22488,18 +22542,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C33" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B34" t="s">
         <v>734</v>
@@ -22510,7 +22564,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B35" t="s">
         <v>734</v>
@@ -22520,8 +22574,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
-        <v>717</v>
+      <c r="A36" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="B36" t="s">
         <v>734</v>
@@ -22532,7 +22586,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B37" t="s">
         <v>734</v>
@@ -22543,34 +22597,45 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B38" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C38" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B39" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B40" t="s">
         <v>734</v>
       </c>
       <c r="C40" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B41" t="s">
+        <v>734</v>
+      </c>
+      <c r="C41" t="s">
         <v>751</v>
       </c>
     </row>
